--- a/Logs/9th Week TeamLogs.xlsx
+++ b/Logs/9th Week TeamLogs.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2391FC3-1F1F-4490-8D13-9CAA6A8AEE2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662603B1-6471-4429-AF92-F8B63005F512}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3828" yWindow="948" windowWidth="11520" windowHeight="11412" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jegor" sheetId="1" r:id="rId1"/>
     <sheet name="Vlad" sheetId="2" r:id="rId2"/>
-    <sheet name="Marko" sheetId="3" r:id="rId3"/>
-    <sheet name="Filipp" sheetId="4" r:id="rId4"/>
+    <sheet name="Filipp" sheetId="3" r:id="rId3"/>
+    <sheet name="Marko" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -68,26 +68,102 @@
   </si>
   <si>
     <t>Date:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class </t>
+  </si>
+  <si>
+    <t>Lecture</t>
+  </si>
+  <si>
+    <t>Proge.</t>
+  </si>
+  <si>
+    <t>Team work</t>
+  </si>
+  <si>
+    <t>Konsultatsioon</t>
+  </si>
+  <si>
+    <t>Vlad Jekimtsev</t>
+  </si>
+  <si>
+    <t>Jegor Laptev</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Prog.</t>
+  </si>
+  <si>
+    <t>TeamWork</t>
+  </si>
+  <si>
+    <t>Doing diagrams</t>
+  </si>
+  <si>
+    <t>Team work,breakfast</t>
+  </si>
+  <si>
+    <t>Assignment 5</t>
+  </si>
+  <si>
+    <t>Imptoving UI</t>
+  </si>
+  <si>
+    <t>Assignment 5,dinner</t>
+  </si>
+  <si>
+    <t>Filipp Djatsuk</t>
+  </si>
+  <si>
+    <t>Loeng</t>
+  </si>
+  <si>
+    <t>Also discussed our project with a team</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Improving diagrams (classes etc)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Teamwork</t>
+  </si>
+  <si>
+    <t>Discussed project + Trin… homework</t>
+  </si>
+  <si>
+    <t>Practice lesson</t>
+  </si>
+  <si>
+    <t>Consultation</t>
+  </si>
+  <si>
+    <t>Working with team on final project</t>
+  </si>
+  <si>
+    <t>Marko Jõgi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -441,11 +517,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -454,69 +595,93 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,48 +981,50 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="2:11" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="33" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="32">
         <v>43549</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="36"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
@@ -872,207 +1039,307 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="20"/>
+      <c r="B8" s="45">
+        <v>1</v>
+      </c>
+      <c r="C8" s="48">
+        <v>43549</v>
+      </c>
+      <c r="D8" s="44">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E8" s="44">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="11">
+        <v>90</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="J8" s="7"/>
-      <c r="K8" s="40"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="38"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="20"/>
+      <c r="B9" s="45">
+        <v>2</v>
+      </c>
+      <c r="C9" s="48">
+        <v>43549</v>
+      </c>
+      <c r="D9" s="44">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E9" s="44">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="F9" s="42">
+        <v>10</v>
+      </c>
+      <c r="G9" s="11">
+        <v>129.99999999999997</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="41"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="20"/>
+      <c r="B10" s="45">
+        <v>3</v>
+      </c>
+      <c r="C10" s="48">
+        <v>43550</v>
+      </c>
+      <c r="D10" s="44">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E10" s="44">
+        <v>0.875</v>
+      </c>
+      <c r="F10" s="42">
+        <v>15</v>
+      </c>
+      <c r="G10" s="11">
+        <v>105.00000000000006</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="41"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="20"/>
+      <c r="B11" s="45">
+        <v>4</v>
+      </c>
+      <c r="C11" s="48">
+        <v>43551</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E11" s="44">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="11">
+        <v>269.99999999999989</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="41"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="44"/>
+      <c r="B12" s="45">
+        <v>5</v>
+      </c>
+      <c r="C12" s="43">
+        <v>43552</v>
+      </c>
+      <c r="D12" s="44">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E12" s="44">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="11">
+        <v>240</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="41"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="45">
+        <v>6</v>
+      </c>
+      <c r="C13" s="48">
+        <v>43553</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E13" s="44">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="11">
+        <v>120.00000000000006</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="20"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="41"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="43"/>
+      <c r="B14" s="45">
+        <v>8</v>
+      </c>
+      <c r="C14" s="48">
+        <v>43555</v>
+      </c>
+      <c r="D14" s="44">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E14" s="44">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="11">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="41"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="4"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="20"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="41"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="21"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="41"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="41"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="41"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="21"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="41"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="39"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="13"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="23"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="42"/>
+      <c r="K20" s="39"/>
     </row>
     <row r="21" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="17">
         <f>SUM(G8:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="19"/>
+        <v>1015</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1085,12 +1352,13 @@
   <dimension ref="B3:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.21875" customWidth="1"/>
     <col min="9" max="9" width="30.33203125" customWidth="1"/>
@@ -1098,48 +1366,50 @@
   <sheetData>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="33" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="32">
         <v>43549</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="36"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
@@ -1154,207 +1424,321 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="20"/>
+      <c r="B9" s="45">
+        <v>1</v>
+      </c>
+      <c r="C9" s="48">
+        <v>43549</v>
+      </c>
+      <c r="D9" s="44">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9" s="44">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="11">
+        <v>90</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="40"/>
+      <c r="K9" s="47"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="41"/>
+      <c r="B10" s="45">
+        <v>2</v>
+      </c>
+      <c r="C10" s="48">
+        <v>43549</v>
+      </c>
+      <c r="D10" s="44">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E10" s="44">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="F10" s="42">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11">
+        <v>129.99999999999997</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="46"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="41"/>
+      <c r="B11" s="45">
+        <v>3</v>
+      </c>
+      <c r="C11" s="48">
+        <v>43550</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="44">
+        <v>0.875</v>
+      </c>
+      <c r="F11" s="42">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11">
+        <v>105.00000000000006</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="41"/>
+      <c r="B12" s="45">
+        <v>4</v>
+      </c>
+      <c r="C12" s="48">
+        <v>43551</v>
+      </c>
+      <c r="D12" s="44">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E12" s="44">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="11">
+        <v>269.99999999999989</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="46"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="41"/>
+      <c r="B13" s="45">
+        <v>5</v>
+      </c>
+      <c r="C13" s="43">
+        <v>43552</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E13" s="44">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="11">
+        <v>240</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="4"/>
+      <c r="B14" s="45">
+        <v>6</v>
+      </c>
+      <c r="C14" s="48">
+        <v>43553</v>
+      </c>
+      <c r="D14" s="44">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E14" s="44">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="11">
+        <v>120.00000000000006</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="20"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="41"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="41"/>
+      <c r="B15" s="45">
+        <v>7</v>
+      </c>
+      <c r="C15" s="48">
+        <v>43553</v>
+      </c>
+      <c r="D15" s="44">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E15" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="11">
+        <v>60.000000000000028</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="42"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="41"/>
+      <c r="B16" s="45">
+        <v>8</v>
+      </c>
+      <c r="C16" s="48">
+        <v>43555</v>
+      </c>
+      <c r="D16" s="44">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E16" s="44">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="11">
+        <v>59.999999999999943</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="41"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="41"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="41"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="41"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="46"/>
     </row>
     <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="39"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="42"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="39"/>
     </row>
     <row r="22" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="17">
         <f>SUM(G9:G21)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="19"/>
+        <v>1075</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1368,13 +1752,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32427AFA-22DC-4EF4-A25E-0E66666CECD2}">
   <dimension ref="B3:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="6" max="6" width="14.109375" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
@@ -1383,48 +1768,50 @@
   <sheetData>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="33" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="32">
         <v>43549</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="36"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
@@ -1439,207 +1826,303 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="55">
+        <v>1</v>
+      </c>
+      <c r="C9" s="56">
+        <v>43549</v>
+      </c>
+      <c r="D9" s="57">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9" s="57">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F9" s="58"/>
+      <c r="G9" s="11">
+        <v>90</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="41"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E10" s="61">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="11">
+        <v>139.99999999999997</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="41"/>
+      <c r="B11" s="53">
+        <v>2</v>
+      </c>
+      <c r="C11" s="51">
+        <v>43550</v>
+      </c>
+      <c r="D11" s="52">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="52">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="11">
+        <v>130.00000000000017</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="50"/>
+      <c r="K11" s="54"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="41"/>
+      <c r="B12" s="53">
+        <v>3</v>
+      </c>
+      <c r="C12" s="51">
+        <v>43551</v>
+      </c>
+      <c r="D12" s="52">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E12" s="52">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F12" s="50">
+        <v>10</v>
+      </c>
+      <c r="G12" s="11">
+        <v>259.99999999999989</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="50"/>
+      <c r="K12" s="54"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="41"/>
+      <c r="B13" s="53">
+        <v>4</v>
+      </c>
+      <c r="C13" s="51">
+        <v>43552</v>
+      </c>
+      <c r="D13" s="52">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="11">
+        <v>240</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="50"/>
+      <c r="K13" s="54"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="41"/>
+      <c r="B14" s="53">
+        <v>5</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E14" s="52">
+        <v>0.875</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="11">
+        <v>120.00000000000006</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="50"/>
+      <c r="K14" s="54"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="41"/>
+      <c r="B15" s="53">
+        <v>6</v>
+      </c>
+      <c r="C15" s="51">
+        <v>43555</v>
+      </c>
+      <c r="D15" s="52">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E15" s="52">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F15" s="50">
+        <v>30</v>
+      </c>
+      <c r="G15" s="11">
+        <v>29.999999999999943</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="50"/>
+      <c r="K15" s="54"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="4"/>
       <c r="I16" s="20"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="41"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="41"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="21"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="41"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="22"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="41"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="21"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="41"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="39"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="13"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="23"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="42"/>
+      <c r="K21" s="39"/>
     </row>
     <row r="22" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="17">
         <f>SUM(G9:G21)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="19"/>
+        <v>1010</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1653,63 +2136,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F48D277-4C33-425C-A628-D76A08925D5B}">
   <dimension ref="B3:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="26"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="33" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="32">
         <v>43549</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="36"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
@@ -1724,207 +2210,319 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="68">
+        <v>1</v>
+      </c>
+      <c r="C9" s="66">
+        <v>43549</v>
+      </c>
+      <c r="D9" s="67">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9" s="67">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F9" s="71"/>
+      <c r="G9" s="11">
+        <f>(E9-D9)*24*60 - F9</f>
+        <v>90</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="69"/>
+      <c r="K9" s="65"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="41"/>
+      <c r="B10" s="68">
+        <v>2</v>
+      </c>
+      <c r="C10" s="66">
+        <v>43549</v>
+      </c>
+      <c r="D10" s="67">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E10" s="67">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="11">
+        <f t="shared" ref="G10:G16" si="0">(E10-D10)*24*60 - F10</f>
+        <v>139.99999999999997</v>
+      </c>
+      <c r="H10" s="65"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="41"/>
+      <c r="B11" s="68">
+        <v>3</v>
+      </c>
+      <c r="C11" s="66">
+        <v>43550</v>
+      </c>
+      <c r="D11" s="67">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="67">
+        <v>0.875</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>120.00000000000006</v>
+      </c>
+      <c r="H11" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="65"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="38"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="41"/>
+      <c r="B12" s="68">
+        <v>4</v>
+      </c>
+      <c r="C12" s="66">
+        <v>43551</v>
+      </c>
+      <c r="D12" s="67">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E12" s="67">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F12" s="72"/>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>269.99999999999989</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="41"/>
+      <c r="B13" s="68">
+        <v>5</v>
+      </c>
+      <c r="C13" s="66">
+        <v>43552</v>
+      </c>
+      <c r="D13" s="67">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E13" s="67">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F13" s="65"/>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="H13" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="41"/>
+      <c r="B14" s="68">
+        <v>6</v>
+      </c>
+      <c r="C14" s="66">
+        <v>43553</v>
+      </c>
+      <c r="D14" s="67">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E14" s="67">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F14" s="65"/>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>120.00000000000006</v>
+      </c>
+      <c r="H14" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="41"/>
+      <c r="B15" s="68">
+        <v>7</v>
+      </c>
+      <c r="C15" s="66">
+        <v>43553</v>
+      </c>
+      <c r="D15" s="67">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E15" s="67">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F15" s="72"/>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>90.000000000000085</v>
+      </c>
+      <c r="H15" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="41"/>
+      <c r="B16" s="68">
+        <v>8</v>
+      </c>
+      <c r="C16" s="66">
+        <v>43555</v>
+      </c>
+      <c r="D16" s="67">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E16" s="67">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F16" s="65"/>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>59.999999999999943</v>
+      </c>
+      <c r="H16" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="21"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="41"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="21"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="41"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="22"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="41"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="21"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="41"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="39"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="13"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="23"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="42"/>
+      <c r="K21" s="39"/>
     </row>
     <row r="22" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="17">
         <f>SUM(G9:G21)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="19"/>
+        <v>1130</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
